--- a/Examples.Library/src/main/resources/xlsx/Template_FinancialDashboard.xlsx
+++ b/Examples.Library/src/main/resources/xlsx/Template_FinancialDashboard.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jack\Source\GcExcel\ds-excel-java-source\ds-excel-java\Source\Demos\ExamplesDemo\Examples.Library\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitCode\ds-excel-java\Source\Demos\ExamplesDemo\Examples.Library\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95460E37-69BD-4878-80A6-28512692764B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -302,25 +301,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>191135</xdr:colOff>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>932</xdr:rowOff>
+      <xdr:colOff>1272540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>430653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -339,8 +332,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7934960" y="0"/>
-          <a:ext cx="1758315" cy="439082"/>
+          <a:off x="7848600" y="15240"/>
+          <a:ext cx="2575560" cy="415413"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -614,23 +607,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -638,21 +631,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -663,7 +656,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -674,7 +667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="12" t="s">
         <v>3</v>
@@ -685,7 +678,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="14" t="s">
         <v>6</v>
@@ -696,7 +689,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="14" t="s">
         <v>7</v>
@@ -705,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
       <c r="D11" s="17"/>
